--- a/tool/template/example/test.xlsx
+++ b/tool/template/example/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\gcard\gcard-server\tool\template\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\gcard\gcard-server\tool\template\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3E3EF1-899F-4956-8463-F4F010D1C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6F83C6-1363-4832-8E97-C81AEB5974D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1290" yWindow="975" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="1200" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,19 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table[aaa=int&amp;bbb=string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa=123321&amp;bbb=djkfjkjgdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[table[aaa=int&amp;bbb=string]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa=123321&amp;bbb=djkfjkjgdf,aaa=123321&amp;bbb=djkfjkjgdf</t>
+    <t>table[aaa=int&amp;bbb=string&amp;ccc=test1$arg1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa=123321&amp;bbb=djkfjkjgdf&amp;ccc=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[table[aaa=int&amp;bbb=string&amp;ccc=test1$arg1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa=123321&amp;bbb=djkfjkjgdf&amp;ccc=15,aaa=123321&amp;bbb=djkfjkjgdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,13 +447,14 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="45.625" customWidth="1"/>
     <col min="7" max="7" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -516,13 +517,13 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -542,7 +543,7 @@
       <c r="E4">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
